--- a/static/SDM_tendik_pns.xlsx
+++ b/static/SDM_tendik_pns.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\# REGISTRASI DAN STATISTIK\Website\202101\202101\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A19F3E75-4420-4ADA-8D2A-EAE30694B19B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BA58825-7558-4187-B91A-273D1C86B2F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2138" uniqueCount="692">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2139" uniqueCount="692">
   <si>
     <t>NIP</t>
   </si>
@@ -2951,9 +2951,9 @@
   <dimension ref="A1:M222"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A137" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="G144" sqref="G144"/>
+      <selection pane="bottomLeft" activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3038,6 +3038,10 @@
         <f>VLOOKUP(I2,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>9_BAKP</v>
       </c>
+      <c r="K2" t="str">
+        <f>TRIM(MID(J2,FIND("_",J2)+1,200))</f>
+        <v>BAKP</v>
+      </c>
       <c r="L2" t="s">
         <v>47</v>
       </c>
@@ -3075,6 +3079,10 @@
         <f>VLOOKUP(I3,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>9_BAKP</v>
       </c>
+      <c r="K3" t="str">
+        <f t="shared" ref="K3:K66" si="0">TRIM(MID(J3,FIND("_",J3)+1,200))</f>
+        <v>BAKP</v>
+      </c>
       <c r="L3" t="s">
         <v>47</v>
       </c>
@@ -3112,6 +3120,10 @@
         <f>VLOOKUP(I4,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>91_BUKK</v>
       </c>
+      <c r="K4" t="str">
+        <f t="shared" si="0"/>
+        <v>BUKK</v>
+      </c>
       <c r="L4" t="s">
         <v>47</v>
       </c>
@@ -3149,6 +3161,10 @@
         <f>VLOOKUP(I5,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>5_FEB</v>
       </c>
+      <c r="K5" t="str">
+        <f t="shared" si="0"/>
+        <v>FEB</v>
+      </c>
       <c r="L5" t="s">
         <v>47</v>
       </c>
@@ -3186,6 +3202,10 @@
         <f>VLOOKUP(I6,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>93_LPPM</v>
       </c>
+      <c r="K6" t="str">
+        <f t="shared" si="0"/>
+        <v>LPPM</v>
+      </c>
       <c r="L6" t="s">
         <v>47</v>
       </c>
@@ -3223,6 +3243,10 @@
         <f>VLOOKUP(I7,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>4_Pertanian</v>
       </c>
+      <c r="K7" t="str">
+        <f t="shared" si="0"/>
+        <v>Pertanian</v>
+      </c>
       <c r="L7" t="s">
         <v>47</v>
       </c>
@@ -3260,6 +3284,10 @@
         <f>VLOOKUP(I8,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>6_FISIP</v>
       </c>
+      <c r="K8" t="str">
+        <f t="shared" si="0"/>
+        <v>FISIP</v>
+      </c>
       <c r="L8" t="s">
         <v>47</v>
       </c>
@@ -3297,6 +3325,10 @@
         <f>VLOOKUP(I9,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>91_BUKK</v>
       </c>
+      <c r="K9" t="str">
+        <f t="shared" si="0"/>
+        <v>BUKK</v>
+      </c>
       <c r="L9" t="s">
         <v>47</v>
       </c>
@@ -3334,6 +3366,10 @@
         <f>VLOOKUP(I10,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>4_Pertanian</v>
       </c>
+      <c r="K10" t="str">
+        <f t="shared" si="0"/>
+        <v>Pertanian</v>
+      </c>
       <c r="L10" t="s">
         <v>47</v>
       </c>
@@ -3371,6 +3407,10 @@
         <f>VLOOKUP(I11,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>1_Hukum</v>
       </c>
+      <c r="K11" t="str">
+        <f t="shared" si="0"/>
+        <v>Hukum</v>
+      </c>
       <c r="L11" t="s">
         <v>47</v>
       </c>
@@ -3408,6 +3448,10 @@
         <f>VLOOKUP(I12,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>92_LP3M</v>
       </c>
+      <c r="K12" t="str">
+        <f t="shared" si="0"/>
+        <v>LP3M</v>
+      </c>
       <c r="L12" t="s">
         <v>47</v>
       </c>
@@ -3445,6 +3489,10 @@
         <f>VLOOKUP(I13,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>7_Kedokteran</v>
       </c>
+      <c r="K13" t="str">
+        <f t="shared" si="0"/>
+        <v>Kedokteran</v>
+      </c>
       <c r="L13" t="s">
         <v>47</v>
       </c>
@@ -3482,6 +3530,10 @@
         <f>VLOOKUP(I14,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>95_PERPUSTAKAAN</v>
       </c>
+      <c r="K14" t="str">
+        <f t="shared" si="0"/>
+        <v>PERPUSTAKAAN</v>
+      </c>
       <c r="L14" t="s">
         <v>47</v>
       </c>
@@ -3519,6 +3571,10 @@
         <f>VLOOKUP(I15,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>8_Pascasarjana</v>
       </c>
+      <c r="K15" t="str">
+        <f t="shared" si="0"/>
+        <v>Pascasarjana</v>
+      </c>
       <c r="L15" t="s">
         <v>47</v>
       </c>
@@ -3556,6 +3612,10 @@
         <f>VLOOKUP(I16,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>2_FKIP</v>
       </c>
+      <c r="K16" t="str">
+        <f t="shared" si="0"/>
+        <v>FKIP</v>
+      </c>
       <c r="L16" t="s">
         <v>47</v>
       </c>
@@ -3593,6 +3653,10 @@
         <f>VLOOKUP(I17,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>5_FEB</v>
       </c>
+      <c r="K17" t="str">
+        <f t="shared" si="0"/>
+        <v>FEB</v>
+      </c>
       <c r="L17" t="s">
         <v>47</v>
       </c>
@@ -3630,6 +3694,10 @@
         <f>VLOOKUP(I18,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>7_Kedokteran</v>
       </c>
+      <c r="K18" t="str">
+        <f t="shared" si="0"/>
+        <v>Kedokteran</v>
+      </c>
       <c r="L18" t="s">
         <v>47</v>
       </c>
@@ -3667,6 +3735,10 @@
         <f>VLOOKUP(I19,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>3_Teknik</v>
       </c>
+      <c r="K19" t="str">
+        <f t="shared" si="0"/>
+        <v>Teknik</v>
+      </c>
       <c r="L19" t="s">
         <v>47</v>
       </c>
@@ -3704,6 +3776,10 @@
         <f>VLOOKUP(I20,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>1_Hukum</v>
       </c>
+      <c r="K20" t="str">
+        <f t="shared" si="0"/>
+        <v>Hukum</v>
+      </c>
       <c r="L20" t="s">
         <v>47</v>
       </c>
@@ -3741,6 +3817,10 @@
         <f>VLOOKUP(I21,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>3_Teknik</v>
       </c>
+      <c r="K21" t="str">
+        <f t="shared" si="0"/>
+        <v>Teknik</v>
+      </c>
       <c r="L21" t="s">
         <v>47</v>
       </c>
@@ -3778,6 +3858,10 @@
         <f>VLOOKUP(I22,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>95_PERPUSTAKAAN</v>
       </c>
+      <c r="K22" t="str">
+        <f t="shared" si="0"/>
+        <v>PERPUSTAKAAN</v>
+      </c>
       <c r="L22" t="s">
         <v>47</v>
       </c>
@@ -3815,6 +3899,10 @@
         <f>VLOOKUP(I23,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>1_Hukum</v>
       </c>
+      <c r="K23" t="str">
+        <f t="shared" si="0"/>
+        <v>Hukum</v>
+      </c>
       <c r="L23" t="s">
         <v>47</v>
       </c>
@@ -3852,6 +3940,10 @@
         <f>VLOOKUP(I24,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>95_PERPUSTAKAAN</v>
       </c>
+      <c r="K24" t="str">
+        <f t="shared" si="0"/>
+        <v>PERPUSTAKAAN</v>
+      </c>
       <c r="L24" t="s">
         <v>47</v>
       </c>
@@ -3889,6 +3981,10 @@
         <f>VLOOKUP(I25,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>91_BUKK</v>
       </c>
+      <c r="K25" t="str">
+        <f t="shared" si="0"/>
+        <v>BUKK</v>
+      </c>
       <c r="L25" t="s">
         <v>47</v>
       </c>
@@ -3926,6 +4022,10 @@
         <f>VLOOKUP(I26,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>92_LP3M</v>
       </c>
+      <c r="K26" t="str">
+        <f t="shared" si="0"/>
+        <v>LP3M</v>
+      </c>
       <c r="L26" t="s">
         <v>47</v>
       </c>
@@ -3963,6 +4063,10 @@
         <f>VLOOKUP(I27,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>5_FEB</v>
       </c>
+      <c r="K27" t="str">
+        <f t="shared" si="0"/>
+        <v>FEB</v>
+      </c>
       <c r="L27" t="s">
         <v>47</v>
       </c>
@@ -4000,6 +4104,10 @@
         <f>VLOOKUP(I28,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>91_BUKK</v>
       </c>
+      <c r="K28" t="str">
+        <f t="shared" si="0"/>
+        <v>BUKK</v>
+      </c>
       <c r="L28" t="s">
         <v>47</v>
       </c>
@@ -4037,6 +4145,10 @@
         <f>VLOOKUP(I29,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>91_BUKK</v>
       </c>
+      <c r="K29" t="str">
+        <f t="shared" si="0"/>
+        <v>BUKK</v>
+      </c>
       <c r="L29" t="s">
         <v>47</v>
       </c>
@@ -4074,6 +4186,10 @@
         <f>VLOOKUP(I30,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>1_Hukum</v>
       </c>
+      <c r="K30" t="str">
+        <f t="shared" si="0"/>
+        <v>Hukum</v>
+      </c>
       <c r="L30" t="s">
         <v>47</v>
       </c>
@@ -4111,6 +4227,10 @@
         <f>VLOOKUP(I31,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>4_Pertanian</v>
       </c>
+      <c r="K31" t="str">
+        <f t="shared" si="0"/>
+        <v>Pertanian</v>
+      </c>
       <c r="L31" t="s">
         <v>47</v>
       </c>
@@ -4148,6 +4268,10 @@
         <f>VLOOKUP(I32,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>98_KLINIK</v>
       </c>
+      <c r="K32" t="str">
+        <f t="shared" si="0"/>
+        <v>KLINIK</v>
+      </c>
       <c r="L32" t="s">
         <v>47</v>
       </c>
@@ -4185,6 +4309,10 @@
         <f>VLOOKUP(I33,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>2_FKIP</v>
       </c>
+      <c r="K33" t="str">
+        <f t="shared" si="0"/>
+        <v>FKIP</v>
+      </c>
       <c r="L33" t="s">
         <v>47</v>
       </c>
@@ -4222,6 +4350,10 @@
         <f>VLOOKUP(I34,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>6_FISIP</v>
       </c>
+      <c r="K34" t="str">
+        <f t="shared" si="0"/>
+        <v>FISIP</v>
+      </c>
       <c r="L34" t="s">
         <v>47</v>
       </c>
@@ -4259,6 +4391,10 @@
         <f>VLOOKUP(I35,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>9_BAKP</v>
       </c>
+      <c r="K35" t="str">
+        <f t="shared" si="0"/>
+        <v>BAKP</v>
+      </c>
       <c r="L35" t="s">
         <v>47</v>
       </c>
@@ -4296,6 +4432,10 @@
         <f>VLOOKUP(I36,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>91_BUKK</v>
       </c>
+      <c r="K36" t="str">
+        <f t="shared" si="0"/>
+        <v>BUKK</v>
+      </c>
       <c r="L36" t="s">
         <v>47</v>
       </c>
@@ -4333,6 +4473,10 @@
         <f>VLOOKUP(I37,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>93_LPPM</v>
       </c>
+      <c r="K37" t="str">
+        <f t="shared" si="0"/>
+        <v>LPPM</v>
+      </c>
       <c r="L37" t="s">
         <v>47</v>
       </c>
@@ -4370,6 +4514,10 @@
         <f>VLOOKUP(I38,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>93_LPPM</v>
       </c>
+      <c r="K38" t="str">
+        <f t="shared" si="0"/>
+        <v>LPPM</v>
+      </c>
       <c r="L38" t="s">
         <v>47</v>
       </c>
@@ -4407,6 +4555,10 @@
         <f>VLOOKUP(I39,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>95_PERPUSTAKAAN</v>
       </c>
+      <c r="K39" t="str">
+        <f t="shared" si="0"/>
+        <v>PERPUSTAKAAN</v>
+      </c>
       <c r="L39" t="s">
         <v>47</v>
       </c>
@@ -4444,6 +4596,10 @@
         <f>VLOOKUP(I40,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>91_BUKK</v>
       </c>
+      <c r="K40" t="str">
+        <f t="shared" si="0"/>
+        <v>BUKK</v>
+      </c>
       <c r="L40" t="s">
         <v>47</v>
       </c>
@@ -4481,6 +4637,10 @@
         <f>VLOOKUP(I41,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>9_BAKP</v>
       </c>
+      <c r="K41" t="str">
+        <f t="shared" si="0"/>
+        <v>BAKP</v>
+      </c>
       <c r="L41" t="s">
         <v>47</v>
       </c>
@@ -4518,6 +4678,10 @@
         <f>VLOOKUP(I42,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>2_FKIP</v>
       </c>
+      <c r="K42" t="str">
+        <f t="shared" si="0"/>
+        <v>FKIP</v>
+      </c>
       <c r="L42" t="s">
         <v>47</v>
       </c>
@@ -4555,6 +4719,10 @@
         <f>VLOOKUP(I43,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>8_Pascasarjana</v>
       </c>
+      <c r="K43" t="str">
+        <f t="shared" si="0"/>
+        <v>Pascasarjana</v>
+      </c>
       <c r="L43" t="s">
         <v>47</v>
       </c>
@@ -4592,6 +4760,10 @@
         <f>VLOOKUP(I44,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>9_BAKP</v>
       </c>
+      <c r="K44" t="str">
+        <f t="shared" si="0"/>
+        <v>BAKP</v>
+      </c>
       <c r="L44" t="s">
         <v>47</v>
       </c>
@@ -4629,6 +4801,10 @@
         <f>VLOOKUP(I45,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>94_SPI</v>
       </c>
+      <c r="K45" t="str">
+        <f t="shared" si="0"/>
+        <v>SPI</v>
+      </c>
       <c r="L45" t="s">
         <v>47</v>
       </c>
@@ -4666,6 +4842,10 @@
         <f>VLOOKUP(I46,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>8_Pascasarjana</v>
       </c>
+      <c r="K46" t="str">
+        <f t="shared" si="0"/>
+        <v>Pascasarjana</v>
+      </c>
       <c r="L46" t="s">
         <v>47</v>
       </c>
@@ -4703,6 +4883,10 @@
         <f>VLOOKUP(I47,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>93_LPPM</v>
       </c>
+      <c r="K47" t="str">
+        <f t="shared" si="0"/>
+        <v>LPPM</v>
+      </c>
       <c r="L47" t="s">
         <v>47</v>
       </c>
@@ -4740,6 +4924,10 @@
         <f>VLOOKUP(I48,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>92_LP3M</v>
       </c>
+      <c r="K48" t="str">
+        <f t="shared" si="0"/>
+        <v>LP3M</v>
+      </c>
       <c r="L48" t="s">
         <v>47</v>
       </c>
@@ -4777,6 +4965,10 @@
         <f>VLOOKUP(I49,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>4_Pertanian</v>
       </c>
+      <c r="K49" t="str">
+        <f t="shared" si="0"/>
+        <v>Pertanian</v>
+      </c>
       <c r="L49" t="s">
         <v>47</v>
       </c>
@@ -4814,6 +5006,10 @@
         <f>VLOOKUP(I50,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>5_FEB</v>
       </c>
+      <c r="K50" t="str">
+        <f t="shared" si="0"/>
+        <v>FEB</v>
+      </c>
       <c r="L50" t="s">
         <v>47</v>
       </c>
@@ -4851,6 +5047,10 @@
         <f>VLOOKUP(I51,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>7_Kedokteran</v>
       </c>
+      <c r="K51" t="str">
+        <f t="shared" si="0"/>
+        <v>Kedokteran</v>
+      </c>
       <c r="L51" t="s">
         <v>47</v>
       </c>
@@ -4888,6 +5088,10 @@
         <f>VLOOKUP(I52,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>91_BUKK</v>
       </c>
+      <c r="K52" t="str">
+        <f t="shared" si="0"/>
+        <v>BUKK</v>
+      </c>
       <c r="L52" t="s">
         <v>47</v>
       </c>
@@ -4925,6 +5129,10 @@
         <f>VLOOKUP(I53,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>4_Pertanian</v>
       </c>
+      <c r="K53" t="str">
+        <f t="shared" si="0"/>
+        <v>Pertanian</v>
+      </c>
       <c r="L53" t="s">
         <v>47</v>
       </c>
@@ -4962,6 +5170,10 @@
         <f>VLOOKUP(I54,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>91_BUKK</v>
       </c>
+      <c r="K54" t="str">
+        <f t="shared" si="0"/>
+        <v>BUKK</v>
+      </c>
       <c r="L54" t="s">
         <v>47</v>
       </c>
@@ -4999,6 +5211,10 @@
         <f>VLOOKUP(I55,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>7_Kedokteran</v>
       </c>
+      <c r="K55" t="str">
+        <f t="shared" si="0"/>
+        <v>Kedokteran</v>
+      </c>
       <c r="L55" t="s">
         <v>47</v>
       </c>
@@ -5036,6 +5252,10 @@
         <f>VLOOKUP(I56,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>91_BUKK</v>
       </c>
+      <c r="K56" t="str">
+        <f t="shared" si="0"/>
+        <v>BUKK</v>
+      </c>
       <c r="L56" t="s">
         <v>47</v>
       </c>
@@ -5073,6 +5293,10 @@
         <f>VLOOKUP(I57,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>2_FKIP</v>
       </c>
+      <c r="K57" t="str">
+        <f t="shared" si="0"/>
+        <v>FKIP</v>
+      </c>
       <c r="L57" t="s">
         <v>47</v>
       </c>
@@ -5110,6 +5334,10 @@
         <f>VLOOKUP(I58,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>4_Pertanian</v>
       </c>
+      <c r="K58" t="str">
+        <f t="shared" si="0"/>
+        <v>Pertanian</v>
+      </c>
       <c r="L58" t="s">
         <v>47</v>
       </c>
@@ -5147,6 +5375,10 @@
         <f>VLOOKUP(I59,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>3_Teknik</v>
       </c>
+      <c r="K59" t="str">
+        <f t="shared" si="0"/>
+        <v>Teknik</v>
+      </c>
       <c r="L59" t="s">
         <v>47</v>
       </c>
@@ -5184,6 +5416,10 @@
         <f>VLOOKUP(I60,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>91_BUKK</v>
       </c>
+      <c r="K60" t="str">
+        <f t="shared" si="0"/>
+        <v>BUKK</v>
+      </c>
       <c r="L60" t="s">
         <v>47</v>
       </c>
@@ -5221,6 +5457,10 @@
         <f>VLOOKUP(I61,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>9_BAKP</v>
       </c>
+      <c r="K61" t="str">
+        <f t="shared" si="0"/>
+        <v>BAKP</v>
+      </c>
       <c r="L61" t="s">
         <v>47</v>
       </c>
@@ -5258,6 +5498,10 @@
         <f>VLOOKUP(I62,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>6_FISIP</v>
       </c>
+      <c r="K62" t="str">
+        <f t="shared" si="0"/>
+        <v>FISIP</v>
+      </c>
       <c r="L62" t="s">
         <v>47</v>
       </c>
@@ -5295,6 +5539,10 @@
         <f>VLOOKUP(I63,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>6_FISIP</v>
       </c>
+      <c r="K63" t="str">
+        <f t="shared" si="0"/>
+        <v>FISIP</v>
+      </c>
       <c r="L63" t="s">
         <v>47</v>
       </c>
@@ -5332,6 +5580,10 @@
         <f>VLOOKUP(I64,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>96_PLI</v>
       </c>
+      <c r="K64" t="str">
+        <f t="shared" si="0"/>
+        <v>PLI</v>
+      </c>
       <c r="L64" t="s">
         <v>47</v>
       </c>
@@ -5369,6 +5621,10 @@
         <f>VLOOKUP(I65,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>9_BAKP</v>
       </c>
+      <c r="K65" t="str">
+        <f t="shared" si="0"/>
+        <v>BAKP</v>
+      </c>
       <c r="L65" t="s">
         <v>47</v>
       </c>
@@ -5406,6 +5662,10 @@
         <f>VLOOKUP(I66,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>9_BAKP</v>
       </c>
+      <c r="K66" t="str">
+        <f t="shared" si="0"/>
+        <v>BAKP</v>
+      </c>
       <c r="L66" t="s">
         <v>47</v>
       </c>
@@ -5443,6 +5703,10 @@
         <f>VLOOKUP(I67,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>2_FKIP</v>
       </c>
+      <c r="K67" t="str">
+        <f t="shared" ref="K67:K130" si="1">TRIM(MID(J67,FIND("_",J67)+1,200))</f>
+        <v>FKIP</v>
+      </c>
       <c r="L67" t="s">
         <v>47</v>
       </c>
@@ -5480,6 +5744,10 @@
         <f>VLOOKUP(I68,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>95_PERPUSTAKAAN</v>
       </c>
+      <c r="K68" t="str">
+        <f t="shared" si="1"/>
+        <v>PERPUSTAKAAN</v>
+      </c>
       <c r="L68" t="s">
         <v>47</v>
       </c>
@@ -5517,6 +5785,10 @@
         <f>VLOOKUP(I69,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>94_SPI</v>
       </c>
+      <c r="K69" t="str">
+        <f t="shared" si="1"/>
+        <v>SPI</v>
+      </c>
       <c r="L69" t="s">
         <v>47</v>
       </c>
@@ -5554,6 +5826,10 @@
         <f>VLOOKUP(I70,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>91_BUKK</v>
       </c>
+      <c r="K70" t="str">
+        <f t="shared" si="1"/>
+        <v>BUKK</v>
+      </c>
       <c r="L70" t="s">
         <v>47</v>
       </c>
@@ -5591,6 +5867,10 @@
         <f>VLOOKUP(I71,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>91_BUKK</v>
       </c>
+      <c r="K71" t="str">
+        <f t="shared" si="1"/>
+        <v>BUKK</v>
+      </c>
       <c r="L71" t="s">
         <v>47</v>
       </c>
@@ -5628,6 +5908,10 @@
         <f>VLOOKUP(I72,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>91_BUKK</v>
       </c>
+      <c r="K72" t="str">
+        <f t="shared" si="1"/>
+        <v>BUKK</v>
+      </c>
       <c r="L72" t="s">
         <v>47</v>
       </c>
@@ -5662,6 +5946,10 @@
         <f>VLOOKUP(I73,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>91_BUKK</v>
       </c>
+      <c r="K73" t="str">
+        <f t="shared" si="1"/>
+        <v>BUKK</v>
+      </c>
       <c r="L73" t="s">
         <v>47</v>
       </c>
@@ -5699,6 +5987,10 @@
         <f>VLOOKUP(I74,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>99_ULP</v>
       </c>
+      <c r="K74" t="str">
+        <f t="shared" si="1"/>
+        <v>ULP</v>
+      </c>
       <c r="L74" t="s">
         <v>47</v>
       </c>
@@ -5736,6 +6028,10 @@
         <f>VLOOKUP(I75,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>3_Teknik</v>
       </c>
+      <c r="K75" t="str">
+        <f t="shared" si="1"/>
+        <v>Teknik</v>
+      </c>
       <c r="L75" t="s">
         <v>47</v>
       </c>
@@ -5773,6 +6069,10 @@
         <f>VLOOKUP(I76,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>97_PUSDAINFO</v>
       </c>
+      <c r="K76" t="str">
+        <f t="shared" si="1"/>
+        <v>PUSDAINFO</v>
+      </c>
       <c r="L76" t="s">
         <v>47</v>
       </c>
@@ -5810,6 +6110,10 @@
         <f>VLOOKUP(I77,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>94_SPI</v>
       </c>
+      <c r="K77" t="str">
+        <f t="shared" si="1"/>
+        <v>SPI</v>
+      </c>
       <c r="L77" t="s">
         <v>47</v>
       </c>
@@ -5847,6 +6151,10 @@
         <f>VLOOKUP(I78,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>4_Pertanian</v>
       </c>
+      <c r="K78" t="str">
+        <f t="shared" si="1"/>
+        <v>Pertanian</v>
+      </c>
       <c r="L78" t="s">
         <v>47</v>
       </c>
@@ -5884,6 +6192,10 @@
         <f>VLOOKUP(I79,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>3_Teknik</v>
       </c>
+      <c r="K79" t="str">
+        <f t="shared" si="1"/>
+        <v>Teknik</v>
+      </c>
       <c r="L79" t="s">
         <v>47</v>
       </c>
@@ -5921,6 +6233,10 @@
         <f>VLOOKUP(I80,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>95_PERPUSTAKAAN</v>
       </c>
+      <c r="K80" t="str">
+        <f t="shared" si="1"/>
+        <v>PERPUSTAKAAN</v>
+      </c>
       <c r="L80" t="s">
         <v>47</v>
       </c>
@@ -5958,6 +6274,10 @@
         <f>VLOOKUP(I81,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>3_Teknik</v>
       </c>
+      <c r="K81" t="str">
+        <f t="shared" si="1"/>
+        <v>Teknik</v>
+      </c>
       <c r="L81" t="s">
         <v>47</v>
       </c>
@@ -5995,6 +6315,10 @@
         <f>VLOOKUP(I82,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>91_BUKK</v>
       </c>
+      <c r="K82" t="str">
+        <f t="shared" si="1"/>
+        <v>BUKK</v>
+      </c>
       <c r="L82" t="s">
         <v>47</v>
       </c>
@@ -6032,6 +6356,10 @@
         <f>VLOOKUP(I83,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>1_Hukum</v>
       </c>
+      <c r="K83" t="str">
+        <f t="shared" si="1"/>
+        <v>Hukum</v>
+      </c>
       <c r="L83" t="s">
         <v>47</v>
       </c>
@@ -6069,6 +6397,10 @@
         <f>VLOOKUP(I84,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>97_PUSDAINFO</v>
       </c>
+      <c r="K84" t="str">
+        <f t="shared" si="1"/>
+        <v>PUSDAINFO</v>
+      </c>
       <c r="L84" t="s">
         <v>47</v>
       </c>
@@ -6106,6 +6438,10 @@
         <f>VLOOKUP(I85,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>91_BUKK</v>
       </c>
+      <c r="K85" t="str">
+        <f t="shared" si="1"/>
+        <v>BUKK</v>
+      </c>
       <c r="L85" t="s">
         <v>47</v>
       </c>
@@ -6143,6 +6479,10 @@
         <f>VLOOKUP(I86,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>91_BUKK</v>
       </c>
+      <c r="K86" t="str">
+        <f t="shared" si="1"/>
+        <v>BUKK</v>
+      </c>
       <c r="L86" t="s">
         <v>47</v>
       </c>
@@ -6180,6 +6520,10 @@
         <f>VLOOKUP(I87,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>91_BUKK</v>
       </c>
+      <c r="K87" t="str">
+        <f t="shared" si="1"/>
+        <v>BUKK</v>
+      </c>
       <c r="L87" t="s">
         <v>47</v>
       </c>
@@ -6217,6 +6561,10 @@
         <f>VLOOKUP(I88,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>92_LP3M</v>
       </c>
+      <c r="K88" t="str">
+        <f t="shared" si="1"/>
+        <v>LP3M</v>
+      </c>
       <c r="L88" t="s">
         <v>47</v>
       </c>
@@ -6254,6 +6602,10 @@
         <f>VLOOKUP(I89,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>7_Kedokteran</v>
       </c>
+      <c r="K89" t="str">
+        <f t="shared" si="1"/>
+        <v>Kedokteran</v>
+      </c>
       <c r="L89" t="s">
         <v>47</v>
       </c>
@@ -6291,6 +6643,10 @@
         <f>VLOOKUP(I90,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>7_Kedokteran</v>
       </c>
+      <c r="K90" t="str">
+        <f t="shared" si="1"/>
+        <v>Kedokteran</v>
+      </c>
       <c r="L90" t="s">
         <v>47</v>
       </c>
@@ -6328,6 +6684,10 @@
         <f>VLOOKUP(I91,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>91_BUKK</v>
       </c>
+      <c r="K91" t="str">
+        <f t="shared" si="1"/>
+        <v>BUKK</v>
+      </c>
       <c r="L91" t="s">
         <v>47</v>
       </c>
@@ -6365,6 +6725,10 @@
         <f>VLOOKUP(I92,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>97_PUSDAINFO</v>
       </c>
+      <c r="K92" t="str">
+        <f t="shared" si="1"/>
+        <v>PUSDAINFO</v>
+      </c>
       <c r="L92" t="s">
         <v>47</v>
       </c>
@@ -6402,6 +6766,10 @@
         <f>VLOOKUP(I93,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>91_BUKK</v>
       </c>
+      <c r="K93" t="str">
+        <f t="shared" si="1"/>
+        <v>BUKK</v>
+      </c>
       <c r="L93" t="s">
         <v>47</v>
       </c>
@@ -6439,6 +6807,10 @@
         <f>VLOOKUP(I94,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>91_BUKK</v>
       </c>
+      <c r="K94" t="str">
+        <f t="shared" si="1"/>
+        <v>BUKK</v>
+      </c>
       <c r="L94" t="s">
         <v>47</v>
       </c>
@@ -6476,6 +6848,10 @@
         <f>VLOOKUP(I95,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>9_BAKP</v>
       </c>
+      <c r="K95" t="str">
+        <f t="shared" si="1"/>
+        <v>BAKP</v>
+      </c>
       <c r="L95" t="s">
         <v>47</v>
       </c>
@@ -6513,6 +6889,10 @@
         <f>VLOOKUP(I96,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>9_BAKP</v>
       </c>
+      <c r="K96" t="str">
+        <f t="shared" si="1"/>
+        <v>BAKP</v>
+      </c>
       <c r="L96" t="s">
         <v>47</v>
       </c>
@@ -6550,6 +6930,10 @@
         <f>VLOOKUP(I97,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>9_BAKP</v>
       </c>
+      <c r="K97" t="str">
+        <f t="shared" si="1"/>
+        <v>BAKP</v>
+      </c>
       <c r="L97" t="s">
         <v>47</v>
       </c>
@@ -6587,6 +6971,10 @@
         <f>VLOOKUP(I98,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>91_BUKK</v>
       </c>
+      <c r="K98" t="str">
+        <f t="shared" si="1"/>
+        <v>BUKK</v>
+      </c>
       <c r="L98" t="s">
         <v>47</v>
       </c>
@@ -6624,6 +7012,10 @@
         <f>VLOOKUP(I99,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>9_BAKP</v>
       </c>
+      <c r="K99" t="str">
+        <f t="shared" si="1"/>
+        <v>BAKP</v>
+      </c>
       <c r="L99" t="s">
         <v>47</v>
       </c>
@@ -6661,6 +7053,10 @@
         <f>VLOOKUP(I100,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>97_PUSDAINFO</v>
       </c>
+      <c r="K100" t="str">
+        <f t="shared" si="1"/>
+        <v>PUSDAINFO</v>
+      </c>
       <c r="L100" t="s">
         <v>47</v>
       </c>
@@ -6698,6 +7094,10 @@
         <f>VLOOKUP(I101,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>5_FEB</v>
       </c>
+      <c r="K101" t="str">
+        <f t="shared" si="1"/>
+        <v>FEB</v>
+      </c>
       <c r="L101" t="s">
         <v>47</v>
       </c>
@@ -6735,6 +7135,10 @@
         <f>VLOOKUP(I102,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>91_BUKK</v>
       </c>
+      <c r="K102" t="str">
+        <f t="shared" si="1"/>
+        <v>BUKK</v>
+      </c>
       <c r="L102" t="s">
         <v>47</v>
       </c>
@@ -6772,6 +7176,10 @@
         <f>VLOOKUP(I103,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>91_BUKK</v>
       </c>
+      <c r="K103" t="str">
+        <f t="shared" si="1"/>
+        <v>BUKK</v>
+      </c>
       <c r="L103" t="s">
         <v>47</v>
       </c>
@@ -6809,6 +7217,10 @@
         <f>VLOOKUP(I104,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>91_BUKK</v>
       </c>
+      <c r="K104" t="str">
+        <f t="shared" si="1"/>
+        <v>BUKK</v>
+      </c>
       <c r="L104" t="s">
         <v>47</v>
       </c>
@@ -6846,6 +7258,10 @@
         <f>VLOOKUP(I105,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>6_FISIP</v>
       </c>
+      <c r="K105" t="str">
+        <f t="shared" si="1"/>
+        <v>FISIP</v>
+      </c>
       <c r="L105" t="s">
         <v>47</v>
       </c>
@@ -6883,6 +7299,10 @@
         <f>VLOOKUP(I106,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>6_FISIP</v>
       </c>
+      <c r="K106" t="str">
+        <f t="shared" si="1"/>
+        <v>FISIP</v>
+      </c>
       <c r="L106" t="s">
         <v>47</v>
       </c>
@@ -6920,6 +7340,10 @@
         <f>VLOOKUP(I107,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>5_FEB</v>
       </c>
+      <c r="K107" t="str">
+        <f t="shared" si="1"/>
+        <v>FEB</v>
+      </c>
       <c r="L107" t="s">
         <v>47</v>
       </c>
@@ -6957,6 +7381,10 @@
         <f>VLOOKUP(I108,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>3_Teknik</v>
       </c>
+      <c r="K108" t="str">
+        <f t="shared" si="1"/>
+        <v>Teknik</v>
+      </c>
       <c r="L108" t="s">
         <v>47</v>
       </c>
@@ -6994,6 +7422,10 @@
         <f>VLOOKUP(I109,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>99_ULP</v>
       </c>
+      <c r="K109" t="str">
+        <f t="shared" si="1"/>
+        <v>ULP</v>
+      </c>
       <c r="L109" t="s">
         <v>47</v>
       </c>
@@ -7031,6 +7463,10 @@
         <f>VLOOKUP(I110,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>98_KLINIK</v>
       </c>
+      <c r="K110" t="str">
+        <f t="shared" si="1"/>
+        <v>KLINIK</v>
+      </c>
       <c r="L110" t="s">
         <v>47</v>
       </c>
@@ -7068,6 +7504,10 @@
         <f>VLOOKUP(I111,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>95_PERPUSTAKAAN</v>
       </c>
+      <c r="K111" t="str">
+        <f t="shared" si="1"/>
+        <v>PERPUSTAKAAN</v>
+      </c>
       <c r="L111" t="s">
         <v>47</v>
       </c>
@@ -7105,6 +7545,10 @@
         <f>VLOOKUP(I112,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>2_FKIP</v>
       </c>
+      <c r="K112" t="str">
+        <f t="shared" si="1"/>
+        <v>FKIP</v>
+      </c>
       <c r="L112" t="s">
         <v>47</v>
       </c>
@@ -7142,6 +7586,10 @@
         <f>VLOOKUP(I113,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>9_BAKP</v>
       </c>
+      <c r="K113" t="str">
+        <f t="shared" si="1"/>
+        <v>BAKP</v>
+      </c>
       <c r="L113" t="s">
         <v>47</v>
       </c>
@@ -7179,6 +7627,10 @@
         <f>VLOOKUP(I114,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>91_BUKK</v>
       </c>
+      <c r="K114" t="str">
+        <f t="shared" si="1"/>
+        <v>BUKK</v>
+      </c>
       <c r="L114" t="s">
         <v>47</v>
       </c>
@@ -7216,6 +7668,10 @@
         <f>VLOOKUP(I115,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>1_Hukum</v>
       </c>
+      <c r="K115" t="str">
+        <f t="shared" si="1"/>
+        <v>Hukum</v>
+      </c>
       <c r="L115" t="s">
         <v>47</v>
       </c>
@@ -7253,6 +7709,10 @@
         <f>VLOOKUP(I116,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>9_BAKP</v>
       </c>
+      <c r="K116" t="str">
+        <f t="shared" si="1"/>
+        <v>BAKP</v>
+      </c>
       <c r="L116" t="s">
         <v>47</v>
       </c>
@@ -7290,6 +7750,10 @@
         <f>VLOOKUP(I117,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>8_Pascasarjana</v>
       </c>
+      <c r="K117" t="str">
+        <f t="shared" si="1"/>
+        <v>Pascasarjana</v>
+      </c>
       <c r="L117" t="s">
         <v>47</v>
       </c>
@@ -7327,6 +7791,10 @@
         <f>VLOOKUP(I118,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>2_FKIP</v>
       </c>
+      <c r="K118" t="str">
+        <f t="shared" si="1"/>
+        <v>FKIP</v>
+      </c>
       <c r="L118" t="s">
         <v>47</v>
       </c>
@@ -7364,6 +7832,10 @@
         <f>VLOOKUP(I119,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>99_ULP</v>
       </c>
+      <c r="K119" t="str">
+        <f t="shared" si="1"/>
+        <v>ULP</v>
+      </c>
       <c r="L119" t="s">
         <v>47</v>
       </c>
@@ -7401,6 +7873,10 @@
         <f>VLOOKUP(I120,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>2_FKIP</v>
       </c>
+      <c r="K120" t="str">
+        <f t="shared" si="1"/>
+        <v>FKIP</v>
+      </c>
       <c r="L120" t="s">
         <v>47</v>
       </c>
@@ -7438,6 +7914,10 @@
         <f>VLOOKUP(I121,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>91_BUKK</v>
       </c>
+      <c r="K121" t="str">
+        <f t="shared" si="1"/>
+        <v>BUKK</v>
+      </c>
       <c r="L121" t="s">
         <v>47</v>
       </c>
@@ -7475,6 +7955,10 @@
         <f>VLOOKUP(I122,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>2_FKIP</v>
       </c>
+      <c r="K122" t="str">
+        <f t="shared" si="1"/>
+        <v>FKIP</v>
+      </c>
       <c r="L122" t="s">
         <v>47</v>
       </c>
@@ -7512,6 +7996,10 @@
         <f>VLOOKUP(I123,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>8_Pascasarjana</v>
       </c>
+      <c r="K123" t="str">
+        <f t="shared" si="1"/>
+        <v>Pascasarjana</v>
+      </c>
       <c r="L123" t="s">
         <v>47</v>
       </c>
@@ -7549,6 +8037,10 @@
         <f>VLOOKUP(I124,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>96_PLI</v>
       </c>
+      <c r="K124" t="str">
+        <f t="shared" si="1"/>
+        <v>PLI</v>
+      </c>
       <c r="L124" t="s">
         <v>47</v>
       </c>
@@ -7586,6 +8078,10 @@
         <f>VLOOKUP(I125,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>98_KLINIK</v>
       </c>
+      <c r="K125" t="str">
+        <f t="shared" si="1"/>
+        <v>KLINIK</v>
+      </c>
       <c r="L125" t="s">
         <v>47</v>
       </c>
@@ -7623,6 +8119,10 @@
         <f>VLOOKUP(I126,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>91_BUKK</v>
       </c>
+      <c r="K126" t="str">
+        <f t="shared" si="1"/>
+        <v>BUKK</v>
+      </c>
       <c r="L126" t="s">
         <v>47</v>
       </c>
@@ -7660,6 +8160,10 @@
         <f>VLOOKUP(I127,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>3_Teknik</v>
       </c>
+      <c r="K127" t="str">
+        <f t="shared" si="1"/>
+        <v>Teknik</v>
+      </c>
       <c r="L127" t="s">
         <v>47</v>
       </c>
@@ -7697,6 +8201,10 @@
         <f>VLOOKUP(I128,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>9_BAKP</v>
       </c>
+      <c r="K128" t="str">
+        <f t="shared" si="1"/>
+        <v>BAKP</v>
+      </c>
       <c r="L128" t="s">
         <v>47</v>
       </c>
@@ -7734,6 +8242,10 @@
         <f>VLOOKUP(I129,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>1_Hukum</v>
       </c>
+      <c r="K129" t="str">
+        <f t="shared" si="1"/>
+        <v>Hukum</v>
+      </c>
       <c r="L129" t="s">
         <v>47</v>
       </c>
@@ -7771,6 +8283,10 @@
         <f>VLOOKUP(I130,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>6_FISIP</v>
       </c>
+      <c r="K130" t="str">
+        <f t="shared" si="1"/>
+        <v>FISIP</v>
+      </c>
       <c r="L130" t="s">
         <v>47</v>
       </c>
@@ -7808,6 +8324,10 @@
         <f>VLOOKUP(I131,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>4_Pertanian</v>
       </c>
+      <c r="K131" t="str">
+        <f t="shared" ref="K131:K194" si="2">TRIM(MID(J131,FIND("_",J131)+1,200))</f>
+        <v>Pertanian</v>
+      </c>
       <c r="L131" t="s">
         <v>47</v>
       </c>
@@ -7845,6 +8365,10 @@
         <f>VLOOKUP(I132,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>3_Teknik</v>
       </c>
+      <c r="K132" t="str">
+        <f t="shared" si="2"/>
+        <v>Teknik</v>
+      </c>
       <c r="L132" t="s">
         <v>47</v>
       </c>
@@ -7882,6 +8406,10 @@
         <f>VLOOKUP(I133,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>99_ULP</v>
       </c>
+      <c r="K133" t="str">
+        <f t="shared" si="2"/>
+        <v>ULP</v>
+      </c>
       <c r="L133" t="s">
         <v>47</v>
       </c>
@@ -7919,6 +8447,10 @@
         <f>VLOOKUP(I134,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>91_BUKK</v>
       </c>
+      <c r="K134" t="str">
+        <f t="shared" si="2"/>
+        <v>BUKK</v>
+      </c>
       <c r="L134" t="s">
         <v>47</v>
       </c>
@@ -7956,6 +8488,10 @@
         <f>VLOOKUP(I135,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>9_BAKP</v>
       </c>
+      <c r="K135" t="str">
+        <f t="shared" si="2"/>
+        <v>BAKP</v>
+      </c>
       <c r="L135" t="s">
         <v>47</v>
       </c>
@@ -7993,6 +8529,10 @@
         <f>VLOOKUP(I136,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>4_Pertanian</v>
       </c>
+      <c r="K136" t="str">
+        <f t="shared" si="2"/>
+        <v>Pertanian</v>
+      </c>
       <c r="L136" t="s">
         <v>47</v>
       </c>
@@ -8030,6 +8570,10 @@
         <f>VLOOKUP(I137,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>91_BUKK</v>
       </c>
+      <c r="K137" t="str">
+        <f t="shared" si="2"/>
+        <v>BUKK</v>
+      </c>
       <c r="L137" t="s">
         <v>47</v>
       </c>
@@ -8067,6 +8611,10 @@
         <f>VLOOKUP(I138,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>91_BUKK</v>
       </c>
+      <c r="K138" t="str">
+        <f t="shared" si="2"/>
+        <v>BUKK</v>
+      </c>
       <c r="L138" t="s">
         <v>47</v>
       </c>
@@ -8104,6 +8652,10 @@
         <f>VLOOKUP(I139,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>9_BAKP</v>
       </c>
+      <c r="K139" t="str">
+        <f t="shared" si="2"/>
+        <v>BAKP</v>
+      </c>
       <c r="L139" t="s">
         <v>47</v>
       </c>
@@ -8141,6 +8693,10 @@
         <f>VLOOKUP(I140,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>91_BUKK</v>
       </c>
+      <c r="K140" t="str">
+        <f t="shared" si="2"/>
+        <v>BUKK</v>
+      </c>
       <c r="L140" t="s">
         <v>47</v>
       </c>
@@ -8178,6 +8734,10 @@
         <f>VLOOKUP(I141,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>91_BUKK</v>
       </c>
+      <c r="K141" t="str">
+        <f t="shared" si="2"/>
+        <v>BUKK</v>
+      </c>
       <c r="L141" t="s">
         <v>47</v>
       </c>
@@ -8215,6 +8775,10 @@
         <f>VLOOKUP(I142,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>91_BUKK</v>
       </c>
+      <c r="K142" t="str">
+        <f t="shared" si="2"/>
+        <v>BUKK</v>
+      </c>
       <c r="L142" t="s">
         <v>47</v>
       </c>
@@ -8252,6 +8816,10 @@
         <f>VLOOKUP(I143,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>6_FISIP</v>
       </c>
+      <c r="K143" t="str">
+        <f t="shared" si="2"/>
+        <v>FISIP</v>
+      </c>
       <c r="L143" t="s">
         <v>47</v>
       </c>
@@ -8289,6 +8857,10 @@
         <f>VLOOKUP(I144,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>5_FEB</v>
       </c>
+      <c r="K144" t="str">
+        <f t="shared" si="2"/>
+        <v>FEB</v>
+      </c>
       <c r="L144" t="s">
         <v>47</v>
       </c>
@@ -8326,6 +8898,10 @@
         <f>VLOOKUP(I145,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>93_LPPM</v>
       </c>
+      <c r="K145" t="str">
+        <f t="shared" si="2"/>
+        <v>LPPM</v>
+      </c>
       <c r="L145" t="s">
         <v>47</v>
       </c>
@@ -8363,6 +8939,10 @@
         <f>VLOOKUP(I146,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>91_BUKK</v>
       </c>
+      <c r="K146" t="str">
+        <f t="shared" si="2"/>
+        <v>BUKK</v>
+      </c>
       <c r="L146" t="s">
         <v>47</v>
       </c>
@@ -8400,6 +8980,10 @@
         <f>VLOOKUP(I147,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>2_FKIP</v>
       </c>
+      <c r="K147" t="str">
+        <f t="shared" si="2"/>
+        <v>FKIP</v>
+      </c>
       <c r="L147" t="s">
         <v>47</v>
       </c>
@@ -8437,6 +9021,10 @@
         <f>VLOOKUP(I148,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>91_BUKK</v>
       </c>
+      <c r="K148" t="str">
+        <f t="shared" si="2"/>
+        <v>BUKK</v>
+      </c>
       <c r="L148" t="s">
         <v>47</v>
       </c>
@@ -8471,6 +9059,10 @@
         <f>VLOOKUP(I149,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>8_Pascasarjana</v>
       </c>
+      <c r="K149" t="str">
+        <f t="shared" si="2"/>
+        <v>Pascasarjana</v>
+      </c>
       <c r="L149" t="s">
         <v>47</v>
       </c>
@@ -8508,6 +9100,10 @@
         <f>VLOOKUP(I150,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>1_Hukum</v>
       </c>
+      <c r="K150" t="str">
+        <f t="shared" si="2"/>
+        <v>Hukum</v>
+      </c>
       <c r="L150" t="s">
         <v>47</v>
       </c>
@@ -8545,6 +9141,10 @@
         <f>VLOOKUP(I151,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>3_Teknik</v>
       </c>
+      <c r="K151" t="str">
+        <f t="shared" si="2"/>
+        <v>Teknik</v>
+      </c>
       <c r="L151" t="s">
         <v>47</v>
       </c>
@@ -8582,6 +9182,10 @@
         <f>VLOOKUP(I152,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>9_BAKP</v>
       </c>
+      <c r="K152" t="str">
+        <f t="shared" si="2"/>
+        <v>BAKP</v>
+      </c>
       <c r="L152" t="s">
         <v>47</v>
       </c>
@@ -8619,6 +9223,10 @@
         <f>VLOOKUP(I153,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>3_Teknik</v>
       </c>
+      <c r="K153" t="str">
+        <f t="shared" si="2"/>
+        <v>Teknik</v>
+      </c>
       <c r="L153" t="s">
         <v>47</v>
       </c>
@@ -8656,6 +9264,10 @@
         <f>VLOOKUP(I154,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>91_BUKK</v>
       </c>
+      <c r="K154" t="str">
+        <f t="shared" si="2"/>
+        <v>BUKK</v>
+      </c>
       <c r="L154" t="s">
         <v>47</v>
       </c>
@@ -8693,6 +9305,10 @@
         <f>VLOOKUP(I155,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>3_Teknik</v>
       </c>
+      <c r="K155" t="str">
+        <f t="shared" si="2"/>
+        <v>Teknik</v>
+      </c>
       <c r="L155" t="s">
         <v>47</v>
       </c>
@@ -8730,6 +9346,10 @@
         <f>VLOOKUP(I156,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>91_BUKK</v>
       </c>
+      <c r="K156" t="str">
+        <f t="shared" si="2"/>
+        <v>BUKK</v>
+      </c>
       <c r="L156" t="s">
         <v>47</v>
       </c>
@@ -8767,6 +9387,10 @@
         <f>VLOOKUP(I157,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>95_PERPUSTAKAAN</v>
       </c>
+      <c r="K157" t="str">
+        <f t="shared" si="2"/>
+        <v>PERPUSTAKAAN</v>
+      </c>
       <c r="L157" t="s">
         <v>47</v>
       </c>
@@ -8804,6 +9428,10 @@
         <f>VLOOKUP(I158,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>3_Teknik</v>
       </c>
+      <c r="K158" t="str">
+        <f t="shared" si="2"/>
+        <v>Teknik</v>
+      </c>
       <c r="L158" t="s">
         <v>47</v>
       </c>
@@ -8841,6 +9469,10 @@
         <f>VLOOKUP(I159,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>91_BUKK</v>
       </c>
+      <c r="K159" t="str">
+        <f t="shared" si="2"/>
+        <v>BUKK</v>
+      </c>
       <c r="L159" t="s">
         <v>47</v>
       </c>
@@ -8878,6 +9510,10 @@
         <f>VLOOKUP(I160,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>9_BAKP</v>
       </c>
+      <c r="K160" t="str">
+        <f t="shared" si="2"/>
+        <v>BAKP</v>
+      </c>
       <c r="L160" t="s">
         <v>47</v>
       </c>
@@ -8915,6 +9551,10 @@
         <f>VLOOKUP(I161,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>3_Teknik</v>
       </c>
+      <c r="K161" t="str">
+        <f t="shared" si="2"/>
+        <v>Teknik</v>
+      </c>
       <c r="L161" t="s">
         <v>47</v>
       </c>
@@ -8952,6 +9592,10 @@
         <f>VLOOKUP(I162,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>5_FEB</v>
       </c>
+      <c r="K162" t="str">
+        <f t="shared" si="2"/>
+        <v>FEB</v>
+      </c>
       <c r="L162" t="s">
         <v>47</v>
       </c>
@@ -8989,6 +9633,10 @@
         <f>VLOOKUP(I163,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>91_BUKK</v>
       </c>
+      <c r="K163" t="str">
+        <f t="shared" si="2"/>
+        <v>BUKK</v>
+      </c>
       <c r="L163" t="s">
         <v>47</v>
       </c>
@@ -9026,6 +9674,10 @@
         <f>VLOOKUP(I164,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>7_Kedokteran</v>
       </c>
+      <c r="K164" t="str">
+        <f t="shared" si="2"/>
+        <v>Kedokteran</v>
+      </c>
       <c r="L164" t="s">
         <v>47</v>
       </c>
@@ -9063,6 +9715,10 @@
         <f>VLOOKUP(I165,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>9_BAKP</v>
       </c>
+      <c r="K165" t="str">
+        <f t="shared" si="2"/>
+        <v>BAKP</v>
+      </c>
       <c r="L165" t="s">
         <v>47</v>
       </c>
@@ -9100,6 +9756,10 @@
         <f>VLOOKUP(I166,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>93_LPPM</v>
       </c>
+      <c r="K166" t="str">
+        <f t="shared" si="2"/>
+        <v>LPPM</v>
+      </c>
       <c r="L166" t="s">
         <v>47</v>
       </c>
@@ -9137,6 +9797,10 @@
         <f>VLOOKUP(I167,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>4_Pertanian</v>
       </c>
+      <c r="K167" t="str">
+        <f t="shared" si="2"/>
+        <v>Pertanian</v>
+      </c>
       <c r="L167" t="s">
         <v>47</v>
       </c>
@@ -9174,6 +9838,10 @@
         <f>VLOOKUP(I168,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>2_FKIP</v>
       </c>
+      <c r="K168" t="str">
+        <f t="shared" si="2"/>
+        <v>FKIP</v>
+      </c>
       <c r="L168" t="s">
         <v>47</v>
       </c>
@@ -9211,6 +9879,10 @@
         <f>VLOOKUP(I169,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>95_PERPUSTAKAAN</v>
       </c>
+      <c r="K169" t="str">
+        <f t="shared" si="2"/>
+        <v>PERPUSTAKAAN</v>
+      </c>
       <c r="L169" t="s">
         <v>47</v>
       </c>
@@ -9248,6 +9920,10 @@
         <f>VLOOKUP(I170,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>91_BUKK</v>
       </c>
+      <c r="K170" t="str">
+        <f t="shared" si="2"/>
+        <v>BUKK</v>
+      </c>
       <c r="L170" t="s">
         <v>47</v>
       </c>
@@ -9285,6 +9961,10 @@
         <f>VLOOKUP(I171,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>91_BUKK</v>
       </c>
+      <c r="K171" t="str">
+        <f t="shared" si="2"/>
+        <v>BUKK</v>
+      </c>
       <c r="L171" t="s">
         <v>47</v>
       </c>
@@ -9322,6 +10002,10 @@
         <f>VLOOKUP(I172,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>95_PERPUSTAKAAN</v>
       </c>
+      <c r="K172" t="str">
+        <f t="shared" si="2"/>
+        <v>PERPUSTAKAAN</v>
+      </c>
       <c r="L172" t="s">
         <v>47</v>
       </c>
@@ -9359,6 +10043,10 @@
         <f>VLOOKUP(I173,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>91_BUKK</v>
       </c>
+      <c r="K173" t="str">
+        <f t="shared" si="2"/>
+        <v>BUKK</v>
+      </c>
       <c r="L173" t="s">
         <v>47</v>
       </c>
@@ -9396,6 +10084,10 @@
         <f>VLOOKUP(I174,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>9_BAKP</v>
       </c>
+      <c r="K174" t="str">
+        <f t="shared" si="2"/>
+        <v>BAKP</v>
+      </c>
       <c r="L174" t="s">
         <v>47</v>
       </c>
@@ -9433,6 +10125,10 @@
         <f>VLOOKUP(I175,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>3_Teknik</v>
       </c>
+      <c r="K175" t="str">
+        <f t="shared" si="2"/>
+        <v>Teknik</v>
+      </c>
       <c r="L175" t="s">
         <v>47</v>
       </c>
@@ -9470,6 +10166,10 @@
         <f>VLOOKUP(I176,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>6_FISIP</v>
       </c>
+      <c r="K176" t="str">
+        <f t="shared" si="2"/>
+        <v>FISIP</v>
+      </c>
       <c r="L176" t="s">
         <v>47</v>
       </c>
@@ -9507,6 +10207,10 @@
         <f>VLOOKUP(I177,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>3_Teknik</v>
       </c>
+      <c r="K177" t="str">
+        <f t="shared" si="2"/>
+        <v>Teknik</v>
+      </c>
       <c r="L177" t="s">
         <v>47</v>
       </c>
@@ -9544,6 +10248,10 @@
         <f>VLOOKUP(I178,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>91_BUKK</v>
       </c>
+      <c r="K178" t="str">
+        <f t="shared" si="2"/>
+        <v>BUKK</v>
+      </c>
       <c r="L178" t="s">
         <v>47</v>
       </c>
@@ -9581,6 +10289,10 @@
         <f>VLOOKUP(I179,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>91_BUKK</v>
       </c>
+      <c r="K179" t="str">
+        <f t="shared" si="2"/>
+        <v>BUKK</v>
+      </c>
       <c r="L179" t="s">
         <v>47</v>
       </c>
@@ -9618,6 +10330,10 @@
         <f>VLOOKUP(I180,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>9_BAKP</v>
       </c>
+      <c r="K180" t="str">
+        <f t="shared" si="2"/>
+        <v>BAKP</v>
+      </c>
       <c r="L180" t="s">
         <v>47</v>
       </c>
@@ -9655,6 +10371,10 @@
         <f>VLOOKUP(I181,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>2_FKIP</v>
       </c>
+      <c r="K181" t="str">
+        <f t="shared" si="2"/>
+        <v>FKIP</v>
+      </c>
       <c r="L181" t="s">
         <v>47</v>
       </c>
@@ -9692,6 +10412,10 @@
         <f>VLOOKUP(I182,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>5_FEB</v>
       </c>
+      <c r="K182" t="str">
+        <f t="shared" si="2"/>
+        <v>FEB</v>
+      </c>
       <c r="L182" t="s">
         <v>47</v>
       </c>
@@ -9729,6 +10453,10 @@
         <f>VLOOKUP(I183,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>91_BUKK</v>
       </c>
+      <c r="K183" t="str">
+        <f t="shared" si="2"/>
+        <v>BUKK</v>
+      </c>
       <c r="L183" t="s">
         <v>47</v>
       </c>
@@ -9766,6 +10494,10 @@
         <f>VLOOKUP(I184,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>4_Pertanian</v>
       </c>
+      <c r="K184" t="str">
+        <f t="shared" si="2"/>
+        <v>Pertanian</v>
+      </c>
       <c r="L184" t="s">
         <v>47</v>
       </c>
@@ -9803,6 +10535,10 @@
         <f>VLOOKUP(I185,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>5_FEB</v>
       </c>
+      <c r="K185" t="str">
+        <f t="shared" si="2"/>
+        <v>FEB</v>
+      </c>
       <c r="L185" t="s">
         <v>47</v>
       </c>
@@ -9840,6 +10576,10 @@
         <f>VLOOKUP(I186,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>5_FEB</v>
       </c>
+      <c r="K186" t="str">
+        <f t="shared" si="2"/>
+        <v>FEB</v>
+      </c>
       <c r="L186" t="s">
         <v>47</v>
       </c>
@@ -9877,6 +10617,10 @@
         <f>VLOOKUP(I187,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>91_BUKK</v>
       </c>
+      <c r="K187" t="str">
+        <f t="shared" si="2"/>
+        <v>BUKK</v>
+      </c>
       <c r="L187" t="s">
         <v>47</v>
       </c>
@@ -9914,6 +10658,10 @@
         <f>VLOOKUP(I188,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>1_Hukum</v>
       </c>
+      <c r="K188" t="str">
+        <f t="shared" si="2"/>
+        <v>Hukum</v>
+      </c>
       <c r="L188" t="s">
         <v>47</v>
       </c>
@@ -9951,6 +10699,10 @@
         <f>VLOOKUP(I189,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>1_Hukum</v>
       </c>
+      <c r="K189" t="str">
+        <f t="shared" si="2"/>
+        <v>Hukum</v>
+      </c>
       <c r="L189" t="s">
         <v>47</v>
       </c>
@@ -9988,6 +10740,10 @@
         <f>VLOOKUP(I190,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>8_Pascasarjana</v>
       </c>
+      <c r="K190" t="str">
+        <f t="shared" si="2"/>
+        <v>Pascasarjana</v>
+      </c>
       <c r="L190" t="s">
         <v>47</v>
       </c>
@@ -10025,6 +10781,10 @@
         <f>VLOOKUP(I191,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>2_FKIP</v>
       </c>
+      <c r="K191" t="str">
+        <f t="shared" si="2"/>
+        <v>FKIP</v>
+      </c>
       <c r="L191" t="s">
         <v>47</v>
       </c>
@@ -10062,6 +10822,10 @@
         <f>VLOOKUP(I192,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>9_BAKP</v>
       </c>
+      <c r="K192" t="str">
+        <f t="shared" si="2"/>
+        <v>BAKP</v>
+      </c>
       <c r="L192" t="s">
         <v>47</v>
       </c>
@@ -10099,6 +10863,10 @@
         <f>VLOOKUP(I193,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>991_UPBK</v>
       </c>
+      <c r="K193" t="str">
+        <f t="shared" si="2"/>
+        <v>UPBK</v>
+      </c>
       <c r="L193" t="s">
         <v>47</v>
       </c>
@@ -10136,6 +10904,10 @@
         <f>VLOOKUP(I194,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>6_FISIP</v>
       </c>
+      <c r="K194" t="str">
+        <f t="shared" si="2"/>
+        <v>FISIP</v>
+      </c>
       <c r="L194" t="s">
         <v>47</v>
       </c>
@@ -10173,6 +10945,10 @@
         <f>VLOOKUP(I195,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>93_LPPM</v>
       </c>
+      <c r="K195" t="str">
+        <f t="shared" ref="K195:K222" si="3">TRIM(MID(J195,FIND("_",J195)+1,200))</f>
+        <v>LPPM</v>
+      </c>
       <c r="L195" t="s">
         <v>47</v>
       </c>
@@ -10210,6 +10986,10 @@
         <f>VLOOKUP(I196,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>8_Pascasarjana</v>
       </c>
+      <c r="K196" t="str">
+        <f t="shared" si="3"/>
+        <v>Pascasarjana</v>
+      </c>
       <c r="L196" t="s">
         <v>47</v>
       </c>
@@ -10247,6 +11027,10 @@
         <f>VLOOKUP(I197,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>8_Pascasarjana</v>
       </c>
+      <c r="K197" t="str">
+        <f t="shared" si="3"/>
+        <v>Pascasarjana</v>
+      </c>
       <c r="L197" t="s">
         <v>47</v>
       </c>
@@ -10284,6 +11068,10 @@
         <f>VLOOKUP(I198,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>8_Pascasarjana</v>
       </c>
+      <c r="K198" t="str">
+        <f t="shared" si="3"/>
+        <v>Pascasarjana</v>
+      </c>
       <c r="L198" t="s">
         <v>47</v>
       </c>
@@ -10321,6 +11109,10 @@
         <f>VLOOKUP(I199,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>91_BUKK</v>
       </c>
+      <c r="K199" t="str">
+        <f t="shared" si="3"/>
+        <v>BUKK</v>
+      </c>
       <c r="L199" t="s">
         <v>47</v>
       </c>
@@ -10358,6 +11150,10 @@
         <f>VLOOKUP(I200,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>91_BUKK</v>
       </c>
+      <c r="K200" t="str">
+        <f t="shared" si="3"/>
+        <v>BUKK</v>
+      </c>
       <c r="L200" t="s">
         <v>47</v>
       </c>
@@ -10395,6 +11191,10 @@
         <f>VLOOKUP(I201,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>91_BUKK</v>
       </c>
+      <c r="K201" t="str">
+        <f t="shared" si="3"/>
+        <v>BUKK</v>
+      </c>
       <c r="L201" t="s">
         <v>47</v>
       </c>
@@ -10432,6 +11232,10 @@
         <f>VLOOKUP(I202,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>91_BUKK</v>
       </c>
+      <c r="K202" t="str">
+        <f t="shared" si="3"/>
+        <v>BUKK</v>
+      </c>
       <c r="L202" t="s">
         <v>47</v>
       </c>
@@ -10469,6 +11273,10 @@
         <f>VLOOKUP(I203,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>91_BUKK</v>
       </c>
+      <c r="K203" t="str">
+        <f t="shared" si="3"/>
+        <v>BUKK</v>
+      </c>
       <c r="L203" t="s">
         <v>47</v>
       </c>
@@ -10506,6 +11314,10 @@
         <f>VLOOKUP(I204,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>91_BUKK</v>
       </c>
+      <c r="K204" t="str">
+        <f t="shared" si="3"/>
+        <v>BUKK</v>
+      </c>
       <c r="L204" t="s">
         <v>47</v>
       </c>
@@ -10543,6 +11355,10 @@
         <f>VLOOKUP(I205,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>3_Teknik</v>
       </c>
+      <c r="K205" t="str">
+        <f t="shared" si="3"/>
+        <v>Teknik</v>
+      </c>
       <c r="L205" t="s">
         <v>47</v>
       </c>
@@ -10580,6 +11396,10 @@
         <f>VLOOKUP(I206,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>91_BUKK</v>
       </c>
+      <c r="K206" t="str">
+        <f t="shared" si="3"/>
+        <v>BUKK</v>
+      </c>
       <c r="L206" t="s">
         <v>47</v>
       </c>
@@ -10617,6 +11437,10 @@
         <f>VLOOKUP(I207,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>3_Teknik</v>
       </c>
+      <c r="K207" t="str">
+        <f t="shared" si="3"/>
+        <v>Teknik</v>
+      </c>
       <c r="L207" t="s">
         <v>47</v>
       </c>
@@ -10654,6 +11478,10 @@
         <f>VLOOKUP(I208,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>91_BUKK</v>
       </c>
+      <c r="K208" t="str">
+        <f t="shared" si="3"/>
+        <v>BUKK</v>
+      </c>
       <c r="L208" t="s">
         <v>47</v>
       </c>
@@ -10691,6 +11519,10 @@
         <f>VLOOKUP(I209,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>91_BUKK</v>
       </c>
+      <c r="K209" t="str">
+        <f t="shared" si="3"/>
+        <v>BUKK</v>
+      </c>
       <c r="L209" t="s">
         <v>47</v>
       </c>
@@ -10728,6 +11560,10 @@
         <f>VLOOKUP(I210,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>5_FEB</v>
       </c>
+      <c r="K210" t="str">
+        <f t="shared" si="3"/>
+        <v>FEB</v>
+      </c>
       <c r="L210" t="s">
         <v>47</v>
       </c>
@@ -10762,6 +11598,10 @@
         <f>VLOOKUP(I211,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>3_Teknik</v>
       </c>
+      <c r="K211" t="str">
+        <f t="shared" si="3"/>
+        <v>Teknik</v>
+      </c>
       <c r="L211" t="s">
         <v>47</v>
       </c>
@@ -10796,6 +11636,10 @@
         <f>VLOOKUP(I212,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>2_FKIP</v>
       </c>
+      <c r="K212" t="str">
+        <f t="shared" si="3"/>
+        <v>FKIP</v>
+      </c>
       <c r="L212" t="s">
         <v>47</v>
       </c>
@@ -10833,6 +11677,10 @@
         <f>VLOOKUP(I213,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>3_Teknik</v>
       </c>
+      <c r="K213" t="str">
+        <f t="shared" si="3"/>
+        <v>Teknik</v>
+      </c>
       <c r="L213" t="s">
         <v>47</v>
       </c>
@@ -10867,6 +11715,10 @@
         <f>VLOOKUP(I214,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>4_Pertanian</v>
       </c>
+      <c r="K214" t="str">
+        <f t="shared" si="3"/>
+        <v>Pertanian</v>
+      </c>
       <c r="L214" t="s">
         <v>47</v>
       </c>
@@ -10904,6 +11756,10 @@
         <f>VLOOKUP(I215,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>91_BUKK</v>
       </c>
+      <c r="K215" t="str">
+        <f t="shared" si="3"/>
+        <v>BUKK</v>
+      </c>
       <c r="L215" t="s">
         <v>47</v>
       </c>
@@ -10941,6 +11797,10 @@
         <f>VLOOKUP(I216,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>7_Kedokteran</v>
       </c>
+      <c r="K216" t="str">
+        <f t="shared" si="3"/>
+        <v>Kedokteran</v>
+      </c>
       <c r="L216" t="s">
         <v>47</v>
       </c>
@@ -10972,12 +11832,16 @@
         <v>649</v>
       </c>
       <c r="I217" t="s">
-        <v>672</v>
+        <v>60</v>
       </c>
       <c r="J217" t="str">
         <f>VLOOKUP(I217,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>7_Kedokteran</v>
       </c>
+      <c r="K217" t="str">
+        <f t="shared" si="3"/>
+        <v>Kedokteran</v>
+      </c>
       <c r="L217" t="s">
         <v>47</v>
       </c>
@@ -11015,6 +11879,10 @@
         <f>VLOOKUP(I218,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>7_Kedokteran</v>
       </c>
+      <c r="K218" t="str">
+        <f t="shared" si="3"/>
+        <v>Kedokteran</v>
+      </c>
       <c r="L218" t="s">
         <v>47</v>
       </c>
@@ -11052,6 +11920,10 @@
         <f>VLOOKUP(I219,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>7_Kedokteran</v>
       </c>
+      <c r="K219" t="str">
+        <f t="shared" si="3"/>
+        <v>Kedokteran</v>
+      </c>
       <c r="L219" t="s">
         <v>47</v>
       </c>
@@ -11089,6 +11961,10 @@
         <f>VLOOKUP(I220,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>7_Kedokteran</v>
       </c>
+      <c r="K220" t="str">
+        <f t="shared" si="3"/>
+        <v>Kedokteran</v>
+      </c>
       <c r="L220" t="s">
         <v>47</v>
       </c>
@@ -11126,6 +12002,10 @@
         <f>VLOOKUP(I221,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>7_Kedokteran</v>
       </c>
+      <c r="K221" t="str">
+        <f t="shared" si="3"/>
+        <v>Kedokteran</v>
+      </c>
       <c r="L221" t="s">
         <v>47</v>
       </c>
@@ -11137,6 +12017,9 @@
       <c r="B222" t="s">
         <v>281</v>
       </c>
+      <c r="C222" t="s">
+        <v>21</v>
+      </c>
       <c r="D222" t="s">
         <v>517</v>
       </c>
@@ -11159,6 +12042,10 @@
       <c r="J222" t="str">
         <f>VLOOKUP(I222,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>991_UPBK</v>
+      </c>
+      <c r="K222" t="str">
+        <f t="shared" si="3"/>
+        <v>UPBK</v>
       </c>
       <c r="L222" t="s">
         <v>47</v>

--- a/static/SDM_tendik_pns.xlsx
+++ b/static/SDM_tendik_pns.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\# REGISTRASI DAN STATISTIK\Website\202101\202101\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BA58825-7558-4187-B91A-273D1C86B2F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{978CD70A-B7E9-4F8A-AA7D-4F393E8232D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2081,9 +2081,6 @@
     <t>94_SPI</t>
   </si>
   <si>
-    <t>98_KLINIK</t>
-  </si>
-  <si>
     <t>99_ULP</t>
   </si>
   <si>
@@ -2100,6 +2097,9 @@
   </si>
   <si>
     <t>8_Pascasarjana</t>
+  </si>
+  <si>
+    <t>98_Klinik</t>
   </si>
 </sst>
 </file>
@@ -2953,7 +2953,7 @@
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="K9" sqref="K9"/>
+      <selection pane="bottomLeft" activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4266,11 +4266,11 @@
       </c>
       <c r="J32" t="str">
         <f>VLOOKUP(I32,Sheet1!$B$20:$C$42,2,FALSE)</f>
-        <v>98_KLINIK</v>
+        <v>98_Klinik</v>
       </c>
       <c r="K32" t="str">
         <f t="shared" si="0"/>
-        <v>KLINIK</v>
+        <v>Klinik</v>
       </c>
       <c r="L32" t="s">
         <v>47</v>
@@ -7461,11 +7461,11 @@
       </c>
       <c r="J110" t="str">
         <f>VLOOKUP(I110,Sheet1!$B$20:$C$42,2,FALSE)</f>
-        <v>98_KLINIK</v>
+        <v>98_Klinik</v>
       </c>
       <c r="K110" t="str">
         <f t="shared" si="1"/>
-        <v>KLINIK</v>
+        <v>Klinik</v>
       </c>
       <c r="L110" t="s">
         <v>47</v>
@@ -8076,11 +8076,11 @@
       </c>
       <c r="J125" t="str">
         <f>VLOOKUP(I125,Sheet1!$B$20:$C$42,2,FALSE)</f>
-        <v>98_KLINIK</v>
+        <v>98_Klinik</v>
       </c>
       <c r="K125" t="str">
         <f t="shared" si="1"/>
-        <v>KLINIK</v>
+        <v>Klinik</v>
       </c>
       <c r="L125" t="s">
         <v>47</v>
@@ -12061,8 +12061,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:N49"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -12461,7 +12461,7 @@
         <v>662</v>
       </c>
       <c r="C28" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.35">
@@ -12520,7 +12520,7 @@
         <v>661</v>
       </c>
       <c r="C35" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="G35" t="s">
         <v>660</v>
@@ -12531,7 +12531,7 @@
         <v>665</v>
       </c>
       <c r="C36" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="G36" t="s">
         <v>659</v>
@@ -12542,7 +12542,7 @@
         <v>668</v>
       </c>
       <c r="C37" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="G37" t="s">
         <v>677</v>
@@ -12553,7 +12553,7 @@
         <v>667</v>
       </c>
       <c r="C38" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="G38" t="s">
         <v>678</v>
@@ -12564,7 +12564,7 @@
         <v>663</v>
       </c>
       <c r="C39" t="s">
-        <v>685</v>
+        <v>691</v>
       </c>
       <c r="G39" t="s">
         <v>679</v>
@@ -12575,7 +12575,7 @@
         <v>675</v>
       </c>
       <c r="C40" t="s">
-        <v>685</v>
+        <v>691</v>
       </c>
       <c r="G40" t="s">
         <v>666</v>
@@ -12586,7 +12586,7 @@
         <v>666</v>
       </c>
       <c r="C41" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.35">
@@ -12594,7 +12594,7 @@
         <v>671</v>
       </c>
       <c r="C42" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.35">
